--- a/cases/cases/test_postman_cases.xlsx
+++ b/cases/cases/test_postman_cases.xlsx
@@ -2108,7 +2108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
@@ -2135,7 +2135,7 @@
     <row r="1" ht="54" customFormat="1" customHeight="1" s="8">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>Id</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
@@ -2249,1054 +2249,12 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="26" customFormat="1" customHeight="1" s="3">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>login</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>{{url}}/bsp/test/user/ugs/auth/loginByNotBip</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>{"account": "18127813600", "password": "WD6Y0+LJLHXuFaplzUtSCnwktA7KgXCpjCS+OVvIFGTEoz2gbqK2oOOuJUf7ao0m2YYGiGi1pQTMBnkrxIY1cztGYbVp97kvIQwZLN4UhrOAe3h1asY/NLnDwB/byl7agcGv9WI4oy6B1Z93HVHmQiAKn7QqnDgPVITu4jthNc8="}</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-    </row>
-    <row r="3" ht="26" customFormat="1" customHeight="1" s="9">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>获取需求采购列表(默认条件查询-成功)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>{{url}}/bsp/test/user/ugs/ibs/api/ibs-material/material/jobRequire/pages?t=1681310676000</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>{"BSP_TOKEN": "{{bsToken}}"}</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>{"ncCode": "", "applyTimeBegin": "", "applyTimeEnd": "", "applyUserName": "", "auditStatus": "", "buildingCode": "", "code": "RE202210270003", "name": "", "purchaseType": "", "size": 10, "current": 1, "projectId": "104966"}</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-    </row>
-    <row r="4" ht="26" customHeight="1" s="1">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>获取请购详情</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://bimdc.bzlrobot.com/bsp/test/user/ugs/ibs/api/ibs-material/material/jobRequire/detail?t=&amp;isEdit=&amp;requireId=5804&amp;projectId=</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>{"BSP_TOKEN": "aba920e63584c3b1fef3cb4c498bca44"}</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-    </row>
-    <row r="5" ht="115.5" customHeight="1" s="1">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>文件上传</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://bimdc.bzlrobot.com/bsp/opi/document/v1/document/fileStore/uploadFile</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>{"Accept": "*/*", "Accept-Language": "zh-CN,zh;q=0.9,en;q=0.8,en-GB;q=0.7,en-US;q=0.6", "Connection": "keep-alive", "Cookie": "sensorsdata2015jssdkcross=%7B%22distinct_id%22%3A%221876a7f1e0f1368-09fbff283e5df9-4c657b58-2073600-1876a7f1e10e86%22%2C%22first_id%22%3A%22%22%2C%22props%22%3A%7B%22%24latest_traffic_source_type%22%3A%22%E5%BC%95%E8%8D%90%E6%B5%81%E9%87%8F%22%2C%22%24latest_search_keyword%22%3A%22%E6%9C%AA%E5%8F%96%E5%88%B0%E5%80%BC%22%2C%22%24latest_referrer%22%3A%22https%3A%2F%2Flogin.countrygarden.com.cn%2F%22%7D%2C%22identities%22%3A%22eyIkaWRlbnRpdHlfY29va2llX2lkIjoiMTg3NmE3ZjFlMGYxMzY4LTA5ZmJmZjI4M2U1ZGY5LTRjNjU3YjU4LTIwNzM2MDAtMTg3NmE3ZjFlMTBlODYifQ%3D%3D%22%2C%22history_login_id%22%3A%7B%22name%22%3A%22%22%2C%22value%22%3A%22%22%7D%2C%22%24device_id%22%3A%221876a7f1e0f1368-09fbff283e5df9-4c657b58-2073600-1876a7f1e10e86%22%7D; x-access-token=9f576f5f914c6e29584f82e5c5fe9c92", "Origin": "https://bimdc.bzlrobot.com", "Sec-Fetch-Dest": "empty", "Sec-Fetch-Mode": "cors", "Sec-Fetch-Site": "same-origin", "User-Agent": "Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/115.0.0.0 Safari/537.36 Edg/115.0.0.0", "app_token": "A4C419A561A3404A86A33628A3F681C3", "sec-ch-ua": "\"Not/A)Brand\";v=\"99\", \"Microsoft Edge\";v=\"115\", \"Chromium\";v=\"115\"", "sec-ch-ua-mobile": "?0", "sec-ch-ua-platform": "\"Windows\""}</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>files</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>{"file": "test.jpeg"}</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-    </row>
-    <row r="6" ht="82.5" customHeight="1" s="1">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://bimdc.bzlrobot.com/bsp/opi/document/v1/document/fileStore/uploadFile</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://bimdc.bzlrobot.com/bsp/opi/document/v1/document/fileStore/uploadFile</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>{"Accept": "*/*", "Accept-Language": "zh-CN,zh;q=0.9,en;q=0.8,en-GB;q=0.7,en-US;q=0.6", "Connection": "keep-alive", "Cookie": "sensorsdata2015jssdkcross=%7B%22distinct_id%22%3A%221876a7f1e0f1368-09fbff283e5df9-4c657b58-2073600-1876a7f1e10e86%22%2C%22first_id%22%3A%22%22%2C%22props%22%3A%7B%22%24latest_traffic_source_type%22%3A%22%E5%BC%95%E8%8D%90%E6%B5%81%E9%87%8F%22%2C%22%24latest_search_keyword%22%3A%22%E6%9C%AA%E5%8F%96%E5%88%B0%E5%80%BC%22%2C%22%24latest_referrer%22%3A%22https%3A%2F%2Flogin.countrygarden.com.cn%2F%22%7D%2C%22identities%22%3A%22eyIkaWRlbnRpdHlfY29va2llX2lkIjoiMTg3NmE3ZjFlMGYxMzY4LTA5ZmJmZjI4M2U1ZGY5LTRjNjU3YjU4LTIwNzM2MDAtMTg3NmE3ZjFlMTBlODYifQ%3D%3D%22%2C%22history_login_id%22%3A%7B%22name%22%3A%22%22%2C%22value%22%3A%22%22%7D%2C%22%24device_id%22%3A%221876a7f1e0f1368-09fbff283e5df9-4c657b58-2073600-1876a7f1e10e86%22%7D; x-access-token=9f576f5f914c6e29584f82e5c5fe9c92", "Origin": "https://bimdc.bzlrobot.com", "Sec-Fetch-Dest": "empty", "Sec-Fetch-Mode": "cors", "Sec-Fetch-Site": "same-origin", "User-Agent": "Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/115.0.0.0 Safari/537.36 Edg/115.0.0.0", "app_token": "A4C419A561A3404A86A33628A3F681C3", "sec-ch-ua": "\"Not/A)Brand\";v=\"99\", \"Microsoft Edge\";v=\"115\", \"Chromium\";v=\"115\"", "sec-ch-ua-mobile": "?0", "sec-ch-ua-platform": "\"Windows\""}</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>files</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>{"file": "/C:/Users/chenyongzhi11/Desktop/微信图片_20221025174254.jpg"}</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-    </row>
-    <row r="7" ht="16.5" customHeight="1" s="1">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>平台登录</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:8000/index/</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>{"username": "admin", "password": "3306", "csrfmiddlewaretoken": "av1VLobtvmrqvvoDRygqIqBr8QOa2ExxzcB1zVpHRKXXvOtoDzhmuLapxdP8uJj7"}</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>新增项目</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:8000/project/create_project/</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>{"Cookie": "sessionid=zjs3ytyud4hh952ongttt6vvx3fihlqv"}</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>查询项目列表信息</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:8000/project/get_projects/</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>新增模块</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:8000/module/create_modul/</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>{"Cookie": "sessionid=zjs3ytyud4hh952ongttt6vvx3fihlqv"}</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>查询模块列表</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:8000/module/get_module/</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>login</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>{{url}}/bsp/test/user/ugs/auth/loginByNotBip</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>{"account": "18127813600", "password": "WD6Y0+LJLHXuFaplzUtSCnwktA7KgXCpjCS+OVvIFGTEoz2gbqK2oOOuJUf7ao0m2YYGiGi1pQTMBnkrxIY1cztGYbVp97kvIQwZLN4UhrOAe3h1asY/NLnDwB/byl7agcGv9WI4oy6B1Z93HVHmQiAKn7QqnDgPVITu4jthNc8="}</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>获取需求采购列表(默认条件查询-成功)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>{{url}}/bsp/test/user/ugs/ibs/api/ibs-material/material/jobRequire/pages?t=1681310676000</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>{"BSP_TOKEN": "{{bsToken}}"}</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>{"ncCode": "", "applyTimeBegin": "", "applyTimeEnd": "", "applyUserName": "", "auditStatus": "", "buildingCode": "", "code": "RE202210270003", "name": "", "purchaseType": "", "size": 10, "current": 1, "projectId": "104966"}</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>获取请购详情</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>https://bimdc.bzlrobot.com/bsp/test/user/ugs/ibs/api/ibs-material/material/jobRequire/detail?t=&amp;isEdit=&amp;requireId=5804&amp;projectId=</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>{"BSP_TOKEN": "aba920e63584c3b1fef3cb4c498bca44"}</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>文件上传</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>https://bimdc.bzlrobot.com/bsp/opi/document/v1/document/fileStore/uploadFile</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>{"Accept": "*/*", "Accept-Language": "zh-CN,zh;q=0.9,en;q=0.8,en-GB;q=0.7,en-US;q=0.6", "Connection": "keep-alive", "Cookie": "sensorsdata2015jssdkcross=%7B%22distinct_id%22%3A%221876a7f1e0f1368-09fbff283e5df9-4c657b58-2073600-1876a7f1e10e86%22%2C%22first_id%22%3A%22%22%2C%22props%22%3A%7B%22%24latest_traffic_source_type%22%3A%22%E5%BC%95%E8%8D%90%E6%B5%81%E9%87%8F%22%2C%22%24latest_search_keyword%22%3A%22%E6%9C%AA%E5%8F%96%E5%88%B0%E5%80%BC%22%2C%22%24latest_referrer%22%3A%22https%3A%2F%2Flogin.countrygarden.com.cn%2F%22%7D%2C%22identities%22%3A%22eyIkaWRlbnRpdHlfY29va2llX2lkIjoiMTg3NmE3ZjFlMGYxMzY4LTA5ZmJmZjI4M2U1ZGY5LTRjNjU3YjU4LTIwNzM2MDAtMTg3NmE3ZjFlMTBlODYifQ%3D%3D%22%2C%22history_login_id%22%3A%7B%22name%22%3A%22%22%2C%22value%22%3A%22%22%7D%2C%22%24device_id%22%3A%221876a7f1e0f1368-09fbff283e5df9-4c657b58-2073600-1876a7f1e10e86%22%7D; x-access-token=9f576f5f914c6e29584f82e5c5fe9c92", "Origin": "https://bimdc.bzlrobot.com", "Sec-Fetch-Dest": "empty", "Sec-Fetch-Mode": "cors", "Sec-Fetch-Site": "same-origin", "User-Agent": "Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/115.0.0.0 Safari/537.36 Edg/115.0.0.0", "app_token": "A4C419A561A3404A86A33628A3F681C3", "sec-ch-ua": "\"Not/A)Brand\";v=\"99\", \"Microsoft Edge\";v=\"115\", \"Chromium\";v=\"115\"", "sec-ch-ua-mobile": "?0", "sec-ch-ua-platform": "\"Windows\""}</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>files</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>{"file": "test.jpeg"}</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://bimdc.bzlrobot.com/bsp/opi/document/v1/document/fileStore/uploadFile</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>https://bimdc.bzlrobot.com/bsp/opi/document/v1/document/fileStore/uploadFile</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>{"Accept": "*/*", "Accept-Language": "zh-CN,zh;q=0.9,en;q=0.8,en-GB;q=0.7,en-US;q=0.6", "Connection": "keep-alive", "Cookie": "sensorsdata2015jssdkcross=%7B%22distinct_id%22%3A%221876a7f1e0f1368-09fbff283e5df9-4c657b58-2073600-1876a7f1e10e86%22%2C%22first_id%22%3A%22%22%2C%22props%22%3A%7B%22%24latest_traffic_source_type%22%3A%22%E5%BC%95%E8%8D%90%E6%B5%81%E9%87%8F%22%2C%22%24latest_search_keyword%22%3A%22%E6%9C%AA%E5%8F%96%E5%88%B0%E5%80%BC%22%2C%22%24latest_referrer%22%3A%22https%3A%2F%2Flogin.countrygarden.com.cn%2F%22%7D%2C%22identities%22%3A%22eyIkaWRlbnRpdHlfY29va2llX2lkIjoiMTg3NmE3ZjFlMGYxMzY4LTA5ZmJmZjI4M2U1ZGY5LTRjNjU3YjU4LTIwNzM2MDAtMTg3NmE3ZjFlMTBlODYifQ%3D%3D%22%2C%22history_login_id%22%3A%7B%22name%22%3A%22%22%2C%22value%22%3A%22%22%7D%2C%22%24device_id%22%3A%221876a7f1e0f1368-09fbff283e5df9-4c657b58-2073600-1876a7f1e10e86%22%7D; x-access-token=9f576f5f914c6e29584f82e5c5fe9c92", "Origin": "https://bimdc.bzlrobot.com", "Sec-Fetch-Dest": "empty", "Sec-Fetch-Mode": "cors", "Sec-Fetch-Site": "same-origin", "User-Agent": "Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/115.0.0.0 Safari/537.36 Edg/115.0.0.0", "app_token": "A4C419A561A3404A86A33628A3F681C3", "sec-ch-ua": "\"Not/A)Brand\";v=\"99\", \"Microsoft Edge\";v=\"115\", \"Chromium\";v=\"115\"", "sec-ch-ua-mobile": "?0", "sec-ch-ua-platform": "\"Windows\""}</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>files</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>{"file": "/C:/Users/chenyongzhi11/Desktop/微信图片_20221025174254.jpg"}</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>平台登录</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:8000/index/</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>{"username": "admin", "password": "3306", "csrfmiddlewaretoken": "av1VLobtvmrqvvoDRygqIqBr8QOa2ExxzcB1zVpHRKXXvOtoDzhmuLapxdP8uJj7"}</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>新增项目</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:8000/project/create_project/</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>{"Cookie": "sessionid=zjs3ytyud4hh952ongttt6vvx3fihlqv"}</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>查询项目列表信息</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:8000/project/get_projects/</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>新增模块</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:8000/module/create_modul/</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>{"Cookie": "sessionid=zjs3ytyud4hh952ongttt6vvx3fihlqv"}</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>查询模块列表</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:8000/module/get_module/</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-    </row>
+    <row r="2" ht="26" customFormat="1" customHeight="1" s="3"/>
+    <row r="3" ht="26" customFormat="1" customHeight="1" s="9"/>
+    <row r="4" ht="26" customHeight="1" s="1"/>
+    <row r="5" ht="115.5" customHeight="1" s="1"/>
+    <row r="6" ht="82.5" customHeight="1" s="1"/>
+    <row r="7" ht="16.5" customHeight="1" s="1"/>
   </sheetData>
   <conditionalFormatting sqref="D6">
     <cfRule type="cellIs" priority="2" operator="equal" dxfId="23">

--- a/cases/cases/test_postman_cases.xlsx
+++ b/cases/cases/test_postman_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
   <si>
     <t>Id</t>
   </si>
@@ -117,7 +117,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>/auth/loginByNotBip</t>
+    <t>/login</t>
   </si>
   <si>
     <t>{"Content-Type": "application/json"}</t>
@@ -129,12 +129,6 @@
     <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
   </si>
   <si>
-    <t>{"code":"0","type":"success","data":{"id":"216868525496796233","userId":"216483504447804297","ibsUserId":7884,"mobile":"18127813600","bspToken":"1f99fc1f6a9386b933fd5ad93f8bc35d","type":"user","avatar":null,"ncAccount":null,"timestamp":1686852549,"idpTokenId":null,"loginChannel":null,"clientType":null,"name":"陈勇志","btpToken":null,"account":"18127813600","accountType":"C","currentEnvId":null,"currentTenantId":"216260762345772077","currentAppId":"8d1f5bdc9c6648af84a98e2c017846c5","currentProjectId":"103654","currentOrgId":null,"currentMenuId":null,"currentOrgMenuId":null,"currentSelectedTab":"org","currentUrl":"/ibs/material/materialsReturned","tenants":[{"id":"1623811301356297657","code":"1623811301356297657","fullName":"广东博嘉拓建筑测试租户","shortName":"广东博嘉拓建筑测试租户","envId":"6296f5e3960c4fdfb9c9357b581c853b","envName":"默认环境","tenantEnvs":null},{"id":"216572673247394736","code":"9C8D5715AAA44D4B8530AB2B7F627E1A","fullName":"安徽腾越建筑工程有限公司","shortName":"安徽腾越建筑工程有限公司","envId":"d1b4f959495f433fb1dd5400a78bce2c","envName":"默认环境","tenantEnvs":null},{"id":"216317749963825419","code":"C2C35D2543B34CA99366D9C76E45D01B","fullName":"沈阳腾越建筑测试租户","shortName":"沈阳腾越建筑测试租户","envId":"c4a70c0a1f5c4aaa83fcd390dcd898c6","envName":"默认环境","tenantEnvs":null},{"id":"216260762345772077","code":"216260762345772077","fullName":"广东腾越建筑工程有限公司","shortName":"广东腾越建筑工程有限公司","envId":"210712034943271000","envName":"默认环境","tenantEnvs":null},{"id":"216328986981406025","code":"TENANT_TEST","fullName":"智慧工地测试租户9","shortName":"智慧工地测试租户9","envId":"e7682a3876a343b483645b0c20da93a3","envName":"默认环境","tenantEnvs":null},{"id":"216365124588606373","code":"TENANT_TEST","fullName":"计划排程自动化测试","shortName":"计划排程自动化测试","envId":"80ce8eb5a7c941f8a6f57b8ecb61ec17","envName":"默认环境","tenantEnvs":null},{"id":"216674624791091228","code":"232E9186B1BE494E966F27BA7CF33AE2","fullName":"cyq测试","shortName":"cyq测试","envId":"ef3f8ed4792f4ef0a5e7d92af394d29c","envName":"默认环境","tenantEnvs":null},{"id":"216687529947792866","code":"9769454E01304245AEE83CE7E99537A8","fullName":"成本总控报表测试租户","shortName":"成本总控报表测试租户","envId":"5125917072884123bf9fe3966ffa4af2","envName":"默认环境","tenantEnvs":null},{"id":"216661417159402453","code":"216661417159402453","fullName":"科技建筑集团","shortName":"科技建筑集团","envId":"b23d88da977e467cb81dd7fb57de97d0","envName":"默认环境","tenantEnvs":null},{"id":"216281557054332425","code":"216281557054332425","fullName":"BIM材料用量计算","shortName":"BIM材料用量计算","envId":"7501c77b0ccd4b4d912451e5f74c1ba7","envName":"默认环境","tenantEnvs":null},{"id":"1320970534539886592","code":"1320970534539886592","fullName":"碧桂园集团","shortName":"碧桂园集团","envId":"1320970534539886592","envName":"默认环境","tenantEnvs":null}],"loginAppDto":null},"msg":null,"succeed":true}</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>安全大屏</t>
   </si>
   <si>
@@ -150,7 +144,7 @@
     <t>绑定TV</t>
   </si>
   <si>
-    <t>/ibs/api/ibs-lms-base/tvConfig/addTvSequence?t={{get_timestamp()}}</t>
+    <t>/addTce?t={{get_timestamp()}}</t>
   </si>
   <si>
     <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
@@ -165,7 +159,7 @@
     <t>查询配置</t>
   </si>
   <si>
-    <t>/ibs/api/ibs-lms-base/tvConfig/getTvInfo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
+    <t>/geto?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
   </si>
   <si>
     <t>TIME</t>
@@ -198,10 +192,10 @@
     <t>TEST</t>
   </si>
   <si>
-    <t>https://bimdc.bzlrobot.com</t>
-  </si>
-  <si>
-    <t>/bsp/test/user/ugs</t>
+    <t>https://www.baidu.com</t>
+  </si>
+  <si>
+    <t>/test</t>
   </si>
   <si>
     <t>{
@@ -217,10 +211,10 @@
   </si>
   <si>
     <t>{
-"{{account}}":"18127813600",
-     "{{passwd}}": "WD6Y0+LJLHXuFaplzUtSCnwktA7KgXCpjCS+OVvIFGTEoz2gbqK2oOOuJUf7ao0m2YYGiGi1pQTMBnkrxIY1cztGYbVp97kvIQwZLN4UhrOAe3h1asY/NLnDwB/byl7agcGv9WI4oy6B1Z93HVHmQiAKn7QqnDgPVITu4jthNc8=",
-"{{projectId}}":"104966",
-"{{tenant}}":"216317749963825419"
+"{{account}}":"181600",
+     "{{passwd}}": "jthNc8=",
+"{{projectId}}":"10",
+"{{tenant}}":"216419"
 }</t>
   </si>
   <si>
@@ -2374,8 +2368,8 @@
   <sheetPr/>
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="6"/>
@@ -2550,12 +2544,8 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
       <c r="U3" t="s">
         <v>28</v>
       </c>
@@ -2574,16 +2564,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="10"/>
       <c r="J4" s="10"/>
@@ -2614,10 +2604,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>31</v>
@@ -2629,19 +2619,19 @@
         <v>32</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S5" t="s">
         <v>28</v>
@@ -2667,10 +2657,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>31</v>
@@ -2679,13 +2669,13 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>9</v>
@@ -2712,7 +2702,7 @@
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="6:24">
       <c r="F7" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10">
         <v>100</v>
@@ -2798,21 +2788,21 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M8:M1048576">
+      <formula1>"md5,sha1,sha256"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2 L2 I3:I7 L3:L7">
+      <formula1>"MD5,sha1,sha256"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 M1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 E8:E1048576 J8:J1048576 K8:K1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8:F34 F35:F83">
+      <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I8:I1048576">
       <formula1>"md5,sha1"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 M1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 E8:E1048576 J8:J1048576 K8:K1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M8:M1048576">
-      <formula1>"md5,sha1,sha256"</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2 J3:J7">
       <formula1>"json,data,params"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8:F34 F35:F83">
-      <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2 L2 I3:I7 L3:L7">
-      <formula1>"MD5,sha1,sha256"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D8:D34 D35:D83">
       <formula1>"YES,NO"</formula1>
@@ -2832,7 +2822,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -2850,28 +2840,28 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" ht="215.25" customHeight="1" spans="1:8">
@@ -2879,22 +2869,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>31</v>
@@ -2905,7 +2895,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2927,7 +2917,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{03218995-8a28-4dd1-a1ad-8c328f181eb1}</x14:id>
+          <x14:id>{da9aeab7-b6b4-4f62-93f3-20bd0f31df11}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2950,7 +2940,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cb975d46-39e4-456a-b18f-c5324ab72419}</x14:id>
+          <x14:id>{2465cef6-b25e-4a28-b2da-f091b55218e7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2973,7 +2963,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{80bc5f48-276f-4e99-8bdd-24e6131317d1}</x14:id>
+          <x14:id>{93d27e33-affc-4256-88f7-27398acdd72b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2996,7 +2986,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5acf07a3-3d35-407a-8587-b71afe307399}</x14:id>
+          <x14:id>{200c0ef2-55bf-4397-98c1-3853cd42f8b9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3022,7 +3012,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{921654bb-4312-45fe-8bcc-579f6855f51f}</x14:id>
+          <x14:id>{0aec5148-c10c-49a2-9ebf-9182d60520ec}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3045,7 +3035,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7e8b1c1f-3388-421d-8899-28bb8749a779}</x14:id>
+          <x14:id>{1de370ba-68ce-428c-8593-8c81b91f72e2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3068,7 +3058,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{86b1386c-f1a9-4f4a-bb4a-1fb06c3213f9}</x14:id>
+          <x14:id>{8b4bce95-a059-4143-8f68-2d27866a59b6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3088,7 +3078,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5c2b7dab-8d2e-4467-89b4-e40ab633e2b2}</x14:id>
+          <x14:id>{f7fd5561-da30-420a-9f87-7685c1d4c7ba}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3108,7 +3098,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e2b0aaab-225e-404e-89b1-dcdbb30a7b60}</x14:id>
+          <x14:id>{02bef1f4-0ae1-4706-8b98-bf775c80163a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3125,7 +3115,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{212fac82-477f-4324-92a7-e463e966816e}</x14:id>
+          <x14:id>{1bc5720c-649f-495a-be5b-9118bde2a859}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3148,7 +3138,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c528016e-a7a0-4c24-95a6-4e01ffaa6ed1}</x14:id>
+          <x14:id>{61f62ed2-87e1-411c-9682-0fd04d14db42}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3160,7 +3150,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://bimdc.bzlrobot.com" tooltip="https://bimdc.bzlrobot.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.baidu.com" tooltip="https://www.baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -3169,7 +3159,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{03218995-8a28-4dd1-a1ad-8c328f181eb1}">
+          <x14:cfRule type="dataBar" id="{da9aeab7-b6b4-4f62-93f3-20bd0f31df11}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3179,7 +3169,7 @@
           <xm:sqref>G1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cb975d46-39e4-456a-b18f-c5324ab72419}">
+          <x14:cfRule type="dataBar" id="{2465cef6-b25e-4a28-b2da-f091b55218e7}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3189,7 +3179,7 @@
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{80bc5f48-276f-4e99-8bdd-24e6131317d1}">
+          <x14:cfRule type="dataBar" id="{93d27e33-affc-4256-88f7-27398acdd72b}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3199,7 +3189,7 @@
           <xm:sqref>G2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5acf07a3-3d35-407a-8587-b71afe307399}">
+          <x14:cfRule type="dataBar" id="{200c0ef2-55bf-4397-98c1-3853cd42f8b9}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3209,7 +3199,7 @@
           <xm:sqref>H2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{921654bb-4312-45fe-8bcc-579f6855f51f}">
+          <x14:cfRule type="dataBar" id="{0aec5148-c10c-49a2-9ebf-9182d60520ec}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3219,7 +3209,7 @@
           <xm:sqref>D3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7e8b1c1f-3388-421d-8899-28bb8749a779}">
+          <x14:cfRule type="dataBar" id="{1de370ba-68ce-428c-8593-8c81b91f72e2}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3229,7 +3219,7 @@
           <xm:sqref>E3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{86b1386c-f1a9-4f4a-bb4a-1fb06c3213f9}">
+          <x14:cfRule type="dataBar" id="{8b4bce95-a059-4143-8f68-2d27866a59b6}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3239,7 +3229,7 @@
           <xm:sqref>G3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5c2b7dab-8d2e-4467-89b4-e40ab633e2b2}">
+          <x14:cfRule type="dataBar" id="{f7fd5561-da30-420a-9f87-7685c1d4c7ba}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3249,7 +3239,7 @@
           <xm:sqref>H3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e2b0aaab-225e-404e-89b1-dcdbb30a7b60}">
+          <x14:cfRule type="dataBar" id="{02bef1f4-0ae1-4706-8b98-bf775c80163a}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3259,7 +3249,7 @@
           <xm:sqref>A1:A3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{212fac82-477f-4324-92a7-e463e966816e}">
+          <x14:cfRule type="dataBar" id="{1bc5720c-649f-495a-be5b-9118bde2a859}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3269,7 +3259,7 @@
           <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c528016e-a7a0-4c24-95a6-4e01ffaa6ed1}">
+          <x14:cfRule type="dataBar" id="{61f62ed2-87e1-411c-9682-0fd04d14db42}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3305,30 +3295,30 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" ht="346.5" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3337,41 +3327,41 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" ht="181.5" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" ht="66" customHeight="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" ht="82.5" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3379,7 +3369,7 @@
     </row>
     <row r="7" ht="165" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
